--- a/others/materialenliste_Team-C_ALL.xlsx
+++ b/others/materialenliste_Team-C_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Gewachshaus\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A332BC77-B8F9-4812-822D-BD4B664A4501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C676640E-82B8-4509-90E2-AD11E996F9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
   <si>
     <t>Name:</t>
   </si>
@@ -92,24 +92,6 @@
     <t>4260581553753</t>
   </si>
   <si>
-    <t>Step-Down Modul LM2596S</t>
-  </si>
-  <si>
-    <t>4260581554392</t>
-  </si>
-  <si>
-    <t>Speicherkartenmodul Micro-SD SPI</t>
-  </si>
-  <si>
-    <t>7426817667077</t>
-  </si>
-  <si>
-    <t>1,8 Zoll SPI TFT Display</t>
-  </si>
-  <si>
-    <t>4260581550028</t>
-  </si>
-  <si>
     <t>Volt-Amperemeter DSN-VC288</t>
   </si>
   <si>
@@ -152,12 +134,6 @@
     <t>DEBO PWR SOLAR1</t>
   </si>
   <si>
-    <t>Kippschalter 16(4)A-250VAC, 1x Ein-Ein, Metallhebel</t>
-  </si>
-  <si>
-    <t>KS C3910</t>
-  </si>
-  <si>
     <t>Raspberry Pi - Adapter micro-HDMI auf HDMI, 1m, schwarz</t>
   </si>
   <si>
@@ -170,36 +146,12 @@
     <t>DEBO LED NP16</t>
   </si>
   <si>
-    <t>LED, 5 mm, bedrahtet, warmweiß, 18000 mcd, 15°</t>
-  </si>
-  <si>
-    <t>LED 5-18000 WW</t>
-  </si>
-  <si>
     <t>Entwicklerboards - Solarpanel, 0,5 W</t>
   </si>
   <si>
     <t>DEBO SOLAR 0.5W</t>
   </si>
   <si>
-    <t>NiMh Akku, 9-V-Block, 250 mAh, 1er-Pack</t>
-  </si>
-  <si>
-    <t>NH XC 9V</t>
-  </si>
-  <si>
-    <t>Solar- und Leichtlaufmotor, 0,4 - 5,9 V</t>
-  </si>
-  <si>
-    <t>SOLAR 90002L</t>
-  </si>
-  <si>
-    <t>DEBO1 3.7LI 1.0A</t>
-  </si>
-  <si>
-    <t>Entwicklerboards - Ladeplatine für 3,7V Li-Akkus, USB-C, 1A</t>
-  </si>
-  <si>
     <t>Entwicklerboards - Breakout-Board mit microUSB</t>
   </si>
   <si>
@@ -212,6 +164,27 @@
     <t>RPI MICRO USB 10</t>
   </si>
   <si>
+    <t>Gewächshaus - Team C</t>
+  </si>
+  <si>
+    <t>Raspberry - Display LCD-Touch, 7", IPS</t>
+  </si>
+  <si>
+    <t>RPI LCD 7TD IPS</t>
+  </si>
+  <si>
+    <t>KY-012 Buzzer Modul aktiv</t>
+  </si>
+  <si>
+    <t>4260581558871</t>
+  </si>
+  <si>
+    <t>LED Matrix MAX7219 4x64</t>
+  </si>
+  <si>
+    <t>4260581550509</t>
+  </si>
+  <si>
     <t>Header-Female-2.54_2x16</t>
   </si>
   <si>
@@ -221,46 +194,109 @@
     <t>Header-Female-2.54_2x3</t>
   </si>
   <si>
+    <t>C92272</t>
+  </si>
+  <si>
     <t>Header-Female-2.54_1x5</t>
   </si>
   <si>
+    <t>C50950</t>
+  </si>
+  <si>
     <t>Header-Female-2.54_1x13</t>
   </si>
   <si>
+    <t>C52709</t>
+  </si>
+  <si>
     <t>Header-Female-2.54_2x20</t>
   </si>
   <si>
-    <t>C92272</t>
-  </si>
-  <si>
-    <t>C50950</t>
-  </si>
-  <si>
-    <t>C52709</t>
-  </si>
-  <si>
     <t>C50982</t>
   </si>
   <si>
-    <t>Gewächshaus - Team C</t>
-  </si>
-  <si>
-    <t>KY-012 Buzzer Modul aktiv</t>
-  </si>
-  <si>
-    <t>4260581558871</t>
-  </si>
-  <si>
-    <t>LED Matrix MAX7219 4x64</t>
-  </si>
-  <si>
-    <t>4260581550509</t>
-  </si>
-  <si>
-    <t>Raspberry - Display LCD-Touch, 7", IPS</t>
-  </si>
-  <si>
-    <t>RPI LCD 7TD IPS</t>
+    <t>12 V DC membrane pump</t>
+  </si>
+  <si>
+    <t>B07Y2Z4SWB</t>
+  </si>
+  <si>
+    <t>WIPPE 1855.1108</t>
+  </si>
+  <si>
+    <t>Rocker switch, 2-pin, OFF, green, illuminated</t>
+  </si>
+  <si>
+    <t>AKKU 22708</t>
+  </si>
+  <si>
+    <t>Li-ion battery, 9-V block, 7.4 V, 500 mAh, incl. MicroUSB chargi</t>
+  </si>
+  <si>
+    <t>ESKA 632.011</t>
+  </si>
+  <si>
+    <t>Feinsicherung 6,3x32mm, flink (f), 250mA</t>
+  </si>
+  <si>
+    <t>DP 08</t>
+  </si>
+  <si>
+    <t>Piano-Dip-Schalter, 8-polig</t>
+  </si>
+  <si>
+    <t>DP 04</t>
+  </si>
+  <si>
+    <t>Piano-Dip-Schalter, 4-polig</t>
+  </si>
+  <si>
+    <t>B098SF3BHB</t>
+  </si>
+  <si>
+    <t>Kadimendium Pack of 20 High Quality Fuse Holder Housing</t>
+  </si>
+  <si>
+    <t>B09XHJ9KRX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosyond 2,8 Zoll TFT LCD Touchscreen Shield Display Modul 320x240 SPI </t>
+  </si>
+  <si>
+    <t>8511002205</t>
+  </si>
+  <si>
+    <t>Plexiglas xt farblos</t>
+  </si>
+  <si>
+    <t>‎4520041-100</t>
+  </si>
+  <si>
+    <t>100 m Lapp 4520041 H07V-K 1.5 mm² Red I Wiring Cable</t>
+  </si>
+  <si>
+    <t>PLA Extrafill "Traffic Black"</t>
+  </si>
+  <si>
+    <t>9017</t>
+  </si>
+  <si>
+    <t>Sperrholzplatte Elliottis Pine C+/C, WBP-Verleimung</t>
+  </si>
+  <si>
+    <t>3544565420</t>
+  </si>
+  <si>
+    <t>21144545.1</t>
+  </si>
+  <si>
+    <t>Rahmenholz Fichte 4-seitig gehobelt Kanten gerundet</t>
+  </si>
+  <si>
+    <t>Custom PCB Gewächshaus</t>
+  </si>
+  <si>
+    <t>Y1-5511071A</t>
   </si>
 </sst>
 </file>
@@ -328,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -420,12 +456,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -456,7 +516,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,13 +527,61 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -803,17 +910,17 @@
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <namedSheetView name="Ansicht1" id="{FEB6E6B8-B94D-4B36-B0A4-822DFCD14F99}">
-    <nsvFilter filterId="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}" ref="A4:G39" tableId="2"/>
+    <nsvFilter filterId="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}" ref="A4:G46" tableId="2"/>
   </namedSheetView>
   <namedSheetView name="Tabelle1" id="{85323B43-DE71-4969-9B23-612C2177C2C6}">
-    <nsvFilter filterId="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}" ref="A4:G39" tableId="2"/>
+    <nsvFilter filterId="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}" ref="A4:G46" tableId="2"/>
   </namedSheetView>
 </namedSheetViews>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}" name="Tabelle2" displayName="Tabelle2" ref="A4:G39" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A4:G39" xr:uid="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}" name="Tabelle2" displayName="Tabelle2" ref="A4:G46" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A4:G46" xr:uid="{95B24B1E-02BB-4FDA-8D7D-D0FF32E551F7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{EF398944-B0D8-4890-91B4-95F47976D810}" name="Pos." dataDxfId="6">
       <calculatedColumnFormula>IF(B5="","",COUNTA($B$5:B5))</calculatedColumnFormula>
@@ -1119,10 +1226,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,12 +1262,12 @@
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1211,14 +1321,14 @@
         <v>13</v>
       </c>
       <c r="E5" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="12">
         <v>6.33</v>
       </c>
       <c r="G5" s="13">
-        <f t="shared" ref="G5:G15" si="0">SUM(E5*F5)</f>
-        <v>18.990000000000002</v>
+        <f t="shared" ref="G5:G12" si="0">SUM(E5*F5)</f>
+        <v>12.66</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1236,14 +1346,14 @@
         <v>13</v>
       </c>
       <c r="E6" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="12">
         <v>9.33</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="0"/>
-        <v>27.990000000000002</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1261,14 +1371,14 @@
         <v>13</v>
       </c>
       <c r="E7" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="12">
         <v>3.99</v>
       </c>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
-        <v>11.97</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1289,11 +1399,11 @@
         <v>3</v>
       </c>
       <c r="F8" s="12">
-        <v>2.33</v>
+        <v>4.33</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
-        <v>6.99</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1311,14 +1421,14 @@
         <v>13</v>
       </c>
       <c r="E9" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="12">
-        <v>1.66</v>
+        <v>5.29</v>
       </c>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
-        <v>4.9799999999999995</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1336,14 +1446,14 @@
         <v>13</v>
       </c>
       <c r="E10" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="12">
-        <v>9.2899999999999991</v>
+        <v>2.66</v>
       </c>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
-        <v>9.2899999999999991</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1361,14 +1471,14 @@
         <v>13</v>
       </c>
       <c r="E11" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="12">
-        <v>4.33</v>
+        <v>4.99</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
-        <v>12.99</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1386,14 +1496,14 @@
         <v>13</v>
       </c>
       <c r="E12" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="12">
-        <v>5.29</v>
+        <v>1.66</v>
       </c>
       <c r="G12" s="13">
         <f t="shared" si="0"/>
-        <v>5.29</v>
+        <v>4.9799999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1402,23 +1512,23 @@
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="12">
-        <v>2.66</v>
+        <v>3.49</v>
       </c>
       <c r="G13" s="13">
-        <f t="shared" si="0"/>
-        <v>7.98</v>
+        <f>SUM(E13*F13)</f>
+        <v>3.49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1427,10 +1537,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>13</v>
@@ -1439,48 +1549,35 @@
         <v>1</v>
       </c>
       <c r="F14" s="12">
-        <v>4.99</v>
+        <v>11.29</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="0"/>
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+        <f>SUM(E14*F14)</f>
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="str">
         <f>IF(B15="","",COUNTA($B$5:B15))</f>
-        <v>11</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="11">
-        <v>3</v>
-      </c>
-      <c r="F15" s="12">
-        <v>1.66</v>
-      </c>
-      <c r="G15" s="13">
-        <f t="shared" si="0"/>
-        <v>4.9799999999999995</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <f>IF(B16="","",COUNTA($B$5:B16))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>13</v>
@@ -1489,49 +1586,62 @@
         <v>1</v>
       </c>
       <c r="F16" s="12">
-        <v>3.49</v>
+        <v>89.95</v>
       </c>
       <c r="G16" s="13">
         <f>SUM(E16*F16)</f>
-        <v>3.49</v>
+        <v>89.95</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <f>IF(B17="","",COUNTA($B$5:B17))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="11">
+        <v>2</v>
+      </c>
+      <c r="F17" s="12">
+        <v>7.4</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" ref="G17:G23" si="1">SUM(E17*F17)</f>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f>IF(B18="","",COUNTA($B$5:B18))</f>
+        <v>13</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="11">
         <v>1</v>
       </c>
-      <c r="F17" s="12">
-        <v>11.29</v>
-      </c>
-      <c r="G17" s="13">
-        <f>SUM(E17*F17)</f>
-        <v>11.29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="str">
-        <f>IF(B18="","",COUNTA($B$5:B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="F18" s="12">
+        <v>21.95</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="1"/>
+        <v>21.95</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -1539,10 +1649,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>13</v>
@@ -1551,11 +1661,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="12">
-        <v>89.95</v>
+        <v>5.8</v>
       </c>
       <c r="G19" s="13">
-        <f>SUM(E19*F19)</f>
-        <v>89.95</v>
+        <f t="shared" si="1"/>
+        <v>5.8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1573,14 +1683,14 @@
         <v>13</v>
       </c>
       <c r="E20" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="12">
-        <v>7.4</v>
+        <v>12.9</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" ref="G20:G31" si="1">SUM(E20*F20)</f>
-        <v>14.8</v>
+        <f t="shared" si="1"/>
+        <v>12.9</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1598,14 +1708,14 @@
         <v>13</v>
       </c>
       <c r="E21" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F21" s="12">
-        <v>21.95</v>
+        <v>3.15</v>
       </c>
       <c r="G21" s="13">
         <f t="shared" si="1"/>
-        <v>21.95</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1626,11 +1736,11 @@
         <v>1</v>
       </c>
       <c r="F22" s="12">
-        <v>8.99</v>
+        <v>1.9</v>
       </c>
       <c r="G22" s="13">
         <f t="shared" si="1"/>
-        <v>8.99</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1651,98 +1761,85 @@
         <v>1</v>
       </c>
       <c r="F23" s="12">
-        <v>5.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="1"/>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="str">
         <f>IF(B24="","",COUNTA($B$5:B24))</f>
-        <v>19</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="11">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12">
-        <v>12.9</v>
-      </c>
-      <c r="G24" s="13">
-        <f t="shared" si="1"/>
-        <v>12.9</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <f>IF(B25="","",COUNTA($B$5:B25))</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" s="12">
-        <v>0.27</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G25" s="13">
-        <f t="shared" si="1"/>
-        <v>1.08</v>
+        <f>SUM(E25*F25)</f>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <f>IF(B26="","",COUNTA($B$5:B26))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F26" s="12">
-        <v>3.15</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G26" s="13">
-        <f t="shared" si="1"/>
-        <v>18.899999999999999</v>
+        <f>SUM(E26*F26)</f>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <f>IF(B27="","",COUNTA($B$5:B27))</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>13</v>
@@ -1751,48 +1848,48 @@
         <v>1</v>
       </c>
       <c r="F27" s="12">
-        <v>9.85</v>
+        <v>0.01</v>
       </c>
       <c r="G27" s="13">
-        <f t="shared" si="1"/>
-        <v>9.85</v>
+        <f>SUM(E27*F27)</f>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <f>IF(B28="","",COUNTA($B$5:B28))</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28" s="12">
-        <v>1.99</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" si="1"/>
-        <v>7.96</v>
+        <f>SUM(E28*F28)</f>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <f>IF(B29="","",COUNTA($B$5:B29))</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>13</v>
@@ -1801,23 +1898,23 @@
         <v>1</v>
       </c>
       <c r="F29" s="12">
-        <v>2.2000000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G29" s="13">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <f>SUM(E29*F29)</f>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <f>IF(B30="","",COUNTA($B$5:B30))</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>13</v>
@@ -1826,213 +1923,392 @@
         <v>1</v>
       </c>
       <c r="F30" s="12">
-        <v>1.9</v>
+        <v>76.540000000000006</v>
       </c>
       <c r="G30" s="13">
-        <f t="shared" si="1"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+        <f>SUM(E30*F30)</f>
+        <v>76.540000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="str">
         <f>IF(B31="","",COUNTA($B$5:B31))</f>
+        <v/>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <f>IF(B32="","",COUNTA($B$5:B32))</f>
+        <v>25</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="33">
+        <v>20</v>
+      </c>
+      <c r="G32" s="35">
+        <f>SUM(E32*F32)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <f>IF(B33="","",COUNTA($B$5:B33))</f>
         <v>26</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="11">
+      <c r="B33" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="32">
         <v>1</v>
       </c>
-      <c r="F31" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G31" s="13">
-        <f t="shared" si="1"/>
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="26">
-        <f>SUM(G5:G31)</f>
-        <v>331.59999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="str">
-        <f>IF(B33="","",COUNTA($B$5:B33))</f>
-        <v/>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="F33" s="33">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G33" s="34">
+        <f>SUM(E33*F33)</f>
+        <v>4.6500000000000004</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <f>IF(B34="","",COUNTA($B$5:B34))</f>
-        <v>28</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>59</v>
+        <v>27</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="32">
         <v>1</v>
       </c>
-      <c r="F34" s="12">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="F34" s="33">
+        <v>10.7</v>
+      </c>
+      <c r="G34" s="34">
         <f>SUM(E34*F34)</f>
-        <v>2.3E-2</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <f>IF(B35="","",COUNTA($B$5:B35))</f>
-        <v>29</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="32">
         <v>1</v>
       </c>
-      <c r="F35" s="12">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G35" s="13">
+      <c r="F35" s="33">
+        <v>0.86</v>
+      </c>
+      <c r="G35" s="34">
         <f>SUM(E35*F35)</f>
-        <v>1.4E-2</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <f>IF(B36="","",COUNTA($B$5:B36))</f>
-        <v>30</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>65</v>
+        <v>29</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="32">
         <v>1</v>
       </c>
-      <c r="F36" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="F36" s="33">
+        <v>0.52</v>
+      </c>
+      <c r="G36" s="34">
         <f>SUM(E36*F36)</f>
-        <v>0.01</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <f>IF(B37="","",COUNTA($B$5:B37))</f>
-        <v>31</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>66</v>
+        <v>30</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="32">
         <v>1</v>
       </c>
-      <c r="F37" s="12">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="F37" s="33">
+        <v>0.35</v>
+      </c>
+      <c r="G37" s="34">
         <f>SUM(E37*F37)</f>
-        <v>1.4E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <f>IF(B38="","",COUNTA($B$5:B38))</f>
+        <v>31</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="32">
+        <v>1</v>
+      </c>
+      <c r="F38" s="33">
+        <v>11.89</v>
+      </c>
+      <c r="G38" s="34">
+        <f>SUM(E38*F38)</f>
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <f>IF(B39="","",COUNTA($B$5:B39))</f>
         <v>32</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="11">
+      <c r="B39" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="32">
         <v>1</v>
       </c>
-      <c r="F38" s="12">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G38" s="13">
-        <f>SUM(E38*F38)</f>
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22" t="s">
+      <c r="F39" s="33">
+        <v>12.76</v>
+      </c>
+      <c r="G39" s="34">
+        <f>SUM(E39*F39)</f>
+        <v>12.76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="str">
+        <f>IF(B40="","",COUNTA($B$5:B40))</f>
+        <v/>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <f>IF(B41="","",COUNTA($B$5:B41))</f>
+        <v>33</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="40">
+        <v>94.95</v>
+      </c>
+      <c r="F41" s="41">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="G41" s="35">
+        <f>SUM(E41*F41)</f>
+        <v>48.614400000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <f>IF(B42="","",COUNTA($B$5:B42))</f>
+        <v>34</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="32">
+        <v>70</v>
+      </c>
+      <c r="F42" s="33">
+        <v>0.59</v>
+      </c>
+      <c r="G42" s="34">
+        <f>SUM(E42*F42)</f>
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <f>IF(B43="","",COUNTA($B$5:B43))</f>
+        <v>35</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="32">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="33">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G43" s="34">
+        <f>SUM(E43*F43)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <f>IF(B44="","",COUNTA($B$5:B44))</f>
+        <v>36</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="39">
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="F44" s="33">
+        <v>16.95</v>
+      </c>
+      <c r="G44" s="34">
+        <f>SUM(E44*F44)</f>
+        <v>9.1936799999999987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <f>IF(B45="","",COUNTA($B$5:B45))</f>
+        <v>37</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="32">
+        <v>3</v>
+      </c>
+      <c r="F45" s="33">
+        <v>2.95</v>
+      </c>
+      <c r="G45" s="34">
+        <f>SUM(E45*F45)</f>
+        <v>8.8500000000000014</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="str">
+        <f>IF(B46="","",COUNTA($B$5:B46))</f>
+        <v/>
+      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="34"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="23" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F47" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="26">
-        <f>SUM(G32:G38)</f>
-        <v>331.69400000000002</v>
+      <c r="G47" s="24">
+        <f>SUM(Tabelle2[Gesamtpreis])</f>
+        <v>531.93208000000004</v>
       </c>
     </row>
   </sheetData>
@@ -2043,109 +2319,54 @@
     <hyperlink ref="D5" r:id="rId1" display="liink" xr:uid="{F8902BFA-812A-44D3-8880-3DF74099193B}"/>
     <hyperlink ref="D6" r:id="rId2" display="https://www.az-delivery.de/fr/products/esp-32-dev-kit-c-v4?variant=30871551836256" xr:uid="{05CED3EA-6022-408A-B973-BEA8AA30988E}"/>
     <hyperlink ref="D7" r:id="rId3" display="https://www.az-delivery.de/fr/products/bodenfeuchte-sensor-modul-v1-2?variant=12461193887840" xr:uid="{35FF6B90-BC81-464A-A8B0-6C279728AD26}"/>
-    <hyperlink ref="D8" r:id="rId4" display="https://www.az-delivery.de/fr/products/lm2596s-dc-dc-step-down-modul-1?variant=12228728324192" xr:uid="{FEA503C2-F7FE-4EEB-A686-2F9AF81B140D}"/>
-    <hyperlink ref="D9" r:id="rId5" display="https://www.az-delivery.de/fr/products/copy-of-spi-reader-micro-speicherkartenmodul-fur-arduino" xr:uid="{BF77ECE0-50CC-478A-9B19-8CD442B3115E}"/>
-    <hyperlink ref="D10" r:id="rId6" display="https://www.az-delivery.de/products/1-8-zoll-spi-tft-display" xr:uid="{B1E0FAAE-B06D-4EF9-BEA6-C9FCE3F73FD0}"/>
-    <hyperlink ref="D11" r:id="rId7" display="https://www.az-delivery.de/products/dsn-vc288-volt-amperemeter?variant=6112976175131" xr:uid="{A49FE0F9-CF28-4A6D-A372-AD34AB49CA1D}"/>
-    <hyperlink ref="D12" r:id="rId8" display="https://www.az-delivery.de/products/40-stk-jumper-wire" xr:uid="{8C91522B-8B31-42FE-AAAF-901AEAF288B2}"/>
-    <hyperlink ref="D13" r:id="rId9" display="https://www.az-delivery.de/products/40-stk-jumper-wire-female-to-male-20-zentimeter?variant=37098560658" xr:uid="{7BA742CE-92D7-419D-AF67-B0754DE8B3ED}"/>
-    <hyperlink ref="D14" r:id="rId10" display="https://www.az-delivery.de/products/40-stk-jumper-wire-male-to-male-20-zentimeter" xr:uid="{427DF5A1-E38F-4414-83AE-2560DC1596C9}"/>
-    <hyperlink ref="D15" r:id="rId11" display="https://www.az-delivery.de/products/kf-301-relais-modul-mit-low-level-trigger?variant=19481728581728" xr:uid="{D9B6BE22-B452-4FDF-A4D1-AE674F71D698}"/>
-    <hyperlink ref="D20" r:id="rId12" display="https://www.reichelt.de/be-quiet-pure-wings-2-80-mm-bqt-bl044-p142573.html?search=BQT+BL" xr:uid="{5C1516F4-7CC6-4F77-BE4D-762FAC2C9E9E}"/>
-    <hyperlink ref="D21" r:id="rId13" display="https://www.reichelt.de/entwicklerboards-ladegeraet-fuer-li-ion-lipo-akkus-usb-dc-sol-debo-pwr-solar1-p235495.html?search=DEBO+PWR" xr:uid="{1F827B80-860D-42C3-B68D-C4137FD8A0B9}"/>
-    <hyperlink ref="D22" r:id="rId14" display="https://www.reichelt.de/kippschalter-16-4-a-250vac-1x-ein-ein-metallhebel-ks-c3910-p105430.html?search=KS+C3910" xr:uid="{A32EE6A6-BE43-42E3-B426-F147C2DA61EA}"/>
-    <hyperlink ref="D23" r:id="rId15" display="https://www.reichelt.de/raspberry-pi-adapter-micro-hdmi-auf-hdmi-1m-schwarz-rpi-m-hdmi-hdmi2-p270099.html?search=m-hdmi" xr:uid="{FADB79FB-F2AD-493A-81F2-EC4D9CB25504}"/>
-    <hyperlink ref="D24" r:id="rId16" display="https://www.reichelt.de/entwicklerboards-neopixel-ring-mit-16-ws2812-rgb-leds-debo-led-np16-p235466.html?search=DEBO+LED+NP" xr:uid="{7DA4BB3E-71B0-4138-8171-843DA11C413E}"/>
-    <hyperlink ref="D25" r:id="rId17" display="https://www.reichelt.de/led-5-mm-bedrahtet-warmweiss-18000-mcd-15--led-5-18000-ww-p163992.html?&amp;trstct=pos_0&amp;nbc=1" xr:uid="{352B29A6-F0DD-4E44-A3DF-7F94E3CAD7A8}"/>
-    <hyperlink ref="D26" r:id="rId18" display="https://www.reichelt.de/entwicklerboards-solarpanel-0-5-w-debo-solar-0-5w-p254385.html?search=DEBO+Solar" xr:uid="{BE9A2EE8-4D2F-41BB-A26B-C5F2B8C5392A}"/>
-    <hyperlink ref="D27" r:id="rId19" display="https://www.reichelt.de/nimh-akku-9-v-block-250-mah-1er-pack-nh-xc-9v-p107288.html?&amp;trstct=pos_3&amp;nbc=1" xr:uid="{F0F4989F-5949-499D-999F-2CAA3B2F5FEF}"/>
-    <hyperlink ref="D28" r:id="rId20" display="https://www.reichelt.de/solar-und-leichtlaufmotor-0-4-5-9-v-solar-90002l-p175933.html?search=SOLAR" xr:uid="{E15FDD10-0F1A-40C2-BDDA-D17EAE4F8DD7}"/>
-    <hyperlink ref="D29" r:id="rId21" display="https://www.reichelt.de/entwicklerboards-ladeplatine-fuer-3-7v-li-akkus-usb-c-1a-debo1-3-7li-1-0a-p291398.html?search=DEBO1" xr:uid="{749375E5-7240-4B30-ACAC-517912A2C210}"/>
-    <hyperlink ref="D30" r:id="rId22" display="https://www.reichelt.de/entwicklerboards-breakout-board-mit-microusb-debo-microusb-p235502.html?search=debo+mi" xr:uid="{3814A4FE-CB37-433E-81E5-F06BF0EDD802}"/>
-    <hyperlink ref="D31" r:id="rId23" display="https://www.reichelt.de/raspberry-pi-micro-usb-power-kabel-rpi-micro-usb-10-p161478.html?search=rpi+micro+usb" xr:uid="{21FC36D5-9315-40ED-BD1E-D1B5D97A7A73}"/>
-    <hyperlink ref="D34" r:id="rId24" display="https://item.szlcsc.com/2776437.html?ref=editor&amp;logined=true" xr:uid="{B189F21A-7389-4A10-B6B0-54C28A0EC135}"/>
-    <hyperlink ref="D35" r:id="rId25" display="https://item.szlcsc.com/562474.html" xr:uid="{9DC61A5B-CCEA-4802-ACD4-6157DBC0F9D1}"/>
-    <hyperlink ref="D36" r:id="rId26" display="https://item.szlcsc.com/562473.html" xr:uid="{1BFBE2AA-5D5F-46FC-B9E1-EB72144F4587}"/>
-    <hyperlink ref="D37" r:id="rId27" display="https://item.szlcsc.com/53723.html" xr:uid="{1D798D80-2BA4-4D12-A559-29CC7DD4E38F}"/>
-    <hyperlink ref="D38" r:id="rId28" display="https://item.szlcsc.com/2776437.html?ref=editor&amp;logined=true" xr:uid="{B828E40E-7E9E-4836-920E-A8A427C3B424}"/>
-    <hyperlink ref="D16" r:id="rId29" display="https://www.az-delivery.de/products/buzzer-modul-aktiv" xr:uid="{A1B20312-9EBC-4033-BDA9-49420CC9B21A}"/>
-    <hyperlink ref="D17" r:id="rId30" display="https://www.az-delivery.de/collections/leds/products/4-x-64er-led-matrix-display" xr:uid="{050AEBF8-0B63-4B5A-8BDB-43D398887697}"/>
-    <hyperlink ref="D19" r:id="rId31" display="https://www.reichelt.de/de/en/raspberry-display-lcd-touch-7-ips-rpi-lcd-7td-ips-p317040.html?r=1" xr:uid="{82BD5517-7AA4-4837-A438-02CACC22DEE2}"/>
+    <hyperlink ref="D8" r:id="rId4" display="https://www.az-delivery.de/products/dsn-vc288-volt-amperemeter?variant=6112976175131" xr:uid="{A49FE0F9-CF28-4A6D-A372-AD34AB49CA1D}"/>
+    <hyperlink ref="D9" r:id="rId5" display="https://www.az-delivery.de/products/40-stk-jumper-wire" xr:uid="{8C91522B-8B31-42FE-AAAF-901AEAF288B2}"/>
+    <hyperlink ref="D10" r:id="rId6" display="https://www.az-delivery.de/products/40-stk-jumper-wire-female-to-male-20-zentimeter?variant=37098560658" xr:uid="{7BA742CE-92D7-419D-AF67-B0754DE8B3ED}"/>
+    <hyperlink ref="D11" r:id="rId7" display="https://www.az-delivery.de/products/40-stk-jumper-wire-male-to-male-20-zentimeter" xr:uid="{427DF5A1-E38F-4414-83AE-2560DC1596C9}"/>
+    <hyperlink ref="D12" r:id="rId8" display="https://www.az-delivery.de/products/kf-301-relais-modul-mit-low-level-trigger?variant=19481728581728" xr:uid="{D9B6BE22-B452-4FDF-A4D1-AE674F71D698}"/>
+    <hyperlink ref="D17" r:id="rId9" display="https://www.reichelt.de/be-quiet-pure-wings-2-80-mm-bqt-bl044-p142573.html?search=BQT+BL" xr:uid="{5C1516F4-7CC6-4F77-BE4D-762FAC2C9E9E}"/>
+    <hyperlink ref="D18" r:id="rId10" display="https://www.reichelt.de/entwicklerboards-ladegeraet-fuer-li-ion-lipo-akkus-usb-dc-sol-debo-pwr-solar1-p235495.html?search=DEBO+PWR" xr:uid="{1F827B80-860D-42C3-B68D-C4137FD8A0B9}"/>
+    <hyperlink ref="D19" r:id="rId11" display="https://www.reichelt.de/raspberry-pi-adapter-micro-hdmi-auf-hdmi-1m-schwarz-rpi-m-hdmi-hdmi2-p270099.html?search=m-hdmi" xr:uid="{FADB79FB-F2AD-493A-81F2-EC4D9CB25504}"/>
+    <hyperlink ref="D20" r:id="rId12" display="https://www.reichelt.de/entwicklerboards-neopixel-ring-mit-16-ws2812-rgb-leds-debo-led-np16-p235466.html?search=DEBO+LED+NP" xr:uid="{7DA4BB3E-71B0-4138-8171-843DA11C413E}"/>
+    <hyperlink ref="D21" r:id="rId13" display="https://www.reichelt.de/entwicklerboards-solarpanel-0-5-w-debo-solar-0-5w-p254385.html?search=DEBO+Solar" xr:uid="{BE9A2EE8-4D2F-41BB-A26B-C5F2B8C5392A}"/>
+    <hyperlink ref="D22" r:id="rId14" display="https://www.reichelt.de/entwicklerboards-breakout-board-mit-microusb-debo-microusb-p235502.html?search=debo+mi" xr:uid="{3814A4FE-CB37-433E-81E5-F06BF0EDD802}"/>
+    <hyperlink ref="D23" r:id="rId15" display="https://www.reichelt.de/raspberry-pi-micro-usb-power-kabel-rpi-micro-usb-10-p161478.html?search=rpi+micro+usb" xr:uid="{21FC36D5-9315-40ED-BD1E-D1B5D97A7A73}"/>
+    <hyperlink ref="D16" r:id="rId16" display="https://www.reichelt.de/de/en/raspberry-display-lcd-touch-7-ips-rpi-lcd-7td-ips-p317040.html?r=1" xr:uid="{CAA13766-3385-4BD9-B396-3423842CBA68}"/>
+    <hyperlink ref="D13" r:id="rId17" display="https://www.az-delivery.de/products/buzzer-modul-aktiv" xr:uid="{1115F0D9-AE4A-4387-8967-BF4433BC000B}"/>
+    <hyperlink ref="D14" r:id="rId18" display="https://www.az-delivery.de/collections/leds/products/4-x-64er-led-matrix-display" xr:uid="{42A2BA48-4F70-4EB2-83AE-3039EF147617}"/>
+    <hyperlink ref="D25" r:id="rId19" display="https://item.szlcsc.com/2776437.html?ref=editor&amp;logined=true" xr:uid="{4057B96F-575C-450A-9F98-C0CF86ABD3FA}"/>
+    <hyperlink ref="D26" r:id="rId20" display="https://item.szlcsc.com/562474.html" xr:uid="{0D1797F8-16EC-4B76-AC61-3B95301C5D14}"/>
+    <hyperlink ref="D27" r:id="rId21" display="https://item.szlcsc.com/562473.html" xr:uid="{E7982F4D-239A-4221-89F5-5B793B9205F8}"/>
+    <hyperlink ref="D28" r:id="rId22" display="https://item.szlcsc.com/53723.html" xr:uid="{48116BF4-2285-4756-B5C3-9F4FD7F0DD8A}"/>
+    <hyperlink ref="D29" r:id="rId23" display="https://item.szlcsc.com/2776437.html?ref=editor&amp;logined=true" xr:uid="{E69B0948-4590-4BE8-83F9-559B9AB10053}"/>
+    <hyperlink ref="D32" r:id="rId24" xr:uid="{D024E48A-D2E4-4364-9361-EADA88AB6051}"/>
+    <hyperlink ref="D33" r:id="rId25" display="https://www.reichelt.de/de/en/rocker-switch-2-pin-off-green-illuminated-wippe-1855-1108-p36783.html?trstct=pos_2&amp;nbc=1&amp;&amp;r=1" xr:uid="{7A9DB483-D4EB-490C-AA06-C3A561F0AF21}"/>
+    <hyperlink ref="D34" r:id="rId26" display="https://www.reichelt.de/de/en/li-ion-battery-9-v-block-7-4-v-500-mah-incl-microusb-chargi-akku-22708-p277530.html?trstct=pos_9&amp;nbc=1&amp;&amp;r=1" xr:uid="{67DF5C6A-94EB-49D5-AC6A-5FBCF3912058}"/>
+    <hyperlink ref="D35" r:id="rId27" display="https://www.reichelt.de/feinsicherung-6-3x32mm-flink-f-250ma-eska-632-011-p278885.html?CCOUNTRY=445&amp;LANGUAGE=de&amp;&amp;r=1&amp;gclid=CjwKCAjwkeqkBhAnEiwA5U-uMw8hYmuOcz8DypZ2zE7e8k8PuAoeFJmx3YeaMDelpAye7POHmwTkLBoCMt0QAvD_BwE" xr:uid="{832BFA6B-11A4-407C-845B-99B3FD40B793}"/>
+    <hyperlink ref="D36" r:id="rId28" display="https://www.reichelt.de/piano-dip-schalter-8-polig-dp-08-p7173.html?search=Dip+schalter" xr:uid="{ED10AFE0-39D9-465D-8118-586C8E20A78A}"/>
+    <hyperlink ref="D37" r:id="rId29" display="https://www.reichelt.de/piano-dip-schalter-4-polig-dp-04-p7171.html?search=DIP+schalter" xr:uid="{8B4B0970-9653-4595-8BC1-F71FD9D32A54}"/>
+    <hyperlink ref="D38" r:id="rId30" display="https://www.amazon.de/Hochwertiges-Sicherungshalter-Sicherungshaltergehäuse-Transparenter-Leiterplattenmontage-Haltergehäuse-Sicherungen/dp/B098SF3BHB/ref=sr_1_27?__mk_de_DE=ÅMÅŽÕÑ&amp;crid=16QEWOTZLIHKR&amp;keywords=glassicherung+halter&amp;qid=1687903879&amp;sprefix=glassicherung+halt%2Caps%2C101&amp;sr=8-27" xr:uid="{A60C1CB3-B38F-4801-9C4A-4492995E22DF}"/>
+    <hyperlink ref="D39" r:id="rId31" display="https://www.amazon.com/-/de/dp/B09XHJ9KRX/ref=sr_1_3?__mk_de_DE=ÅMÅŽÕÑ&amp;crid=21A3PT2T799RA&amp;keywords=2.8&quot;%2BDisplay%2BTFT&amp;qid=1687904376&amp;sprefix=2.8%2Bdisplay%2Btft%2Caps%2C500&amp;sr=8-3&amp;th=1" xr:uid="{D6FC0E24-3DDD-45A4-BE63-7D9DBD8BF395}"/>
+    <hyperlink ref="D41" r:id="rId32" display="https://shop.leyendecker.de/plattenwerkstoffe/plexiglas/5943/plexiglas-xt-farblos?c=537" xr:uid="{E71F9701-A670-4D50-B2F4-D3006CA875EC}"/>
+    <hyperlink ref="D42" r:id="rId33" display="https://www.amazon.de/Lapp-Kabel-Litze-H07V-K-4520041/dp/B00591I7PU/ref=sr_1_1?__mk_de_DE=ÅMÅŽÕÑ&amp;crid=2RRKH0DPR89ND&amp;keywords=leitung+1&amp;qid=1687894718&amp;sprefix=leitung+1%2Caps%2C116&amp;sr=8-1" xr:uid="{7A313D22-7EB7-4EE5-A572-4068589BF015}"/>
+    <hyperlink ref="D43" r:id="rId34" display="https://shop.fillamentum.com/collections/pla-extrafill-filament/products/pla-extrafill-traffic-black" xr:uid="{4A7097CD-D158-4CE9-9C21-913FF85DE131}"/>
+    <hyperlink ref="D44" r:id="rId35" display="https://shop.leyendecker.de/plattenwerkstoffe/sperrholz-tischlerplatten/bausperrholz/1802/sperrholzplatte-elliottis-pine-c/c-wbp-verleimung" xr:uid="{70D30F38-3947-472A-91DA-1DEB93E36279}"/>
+    <hyperlink ref="D45" r:id="rId36" display="https://shop.leyendecker.de/bauholz-hobelware/rahmenholz/gehobelt/204/rahmenholz-fichte-4-seitig-gehobelt-kanten-gerundet" xr:uid="{73CBB46D-E41E-4FC4-AC6B-8BD26688A50F}"/>
+    <hyperlink ref="D30" r:id="rId37" display="https://jlcpcb.com" xr:uid="{04A80CA2-B06E-46A5-BAFC-2C5AD89EEB54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId38"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;T&amp;C&amp;F&amp;R&amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;P&amp;C&amp;F&amp;R&amp;D</oddHeader>
   </headerFooter>
-  <drawing r:id="rId33"/>
+  <drawing r:id="rId39"/>
   <tableParts count="1">
-    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId40"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <FolderType xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Owner xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Teachers xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <AppVersion xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <LMS_Mappings xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Math_Settings xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <NotebookType xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Students xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Templates xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <TeamsChannelId xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Student_Groups xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Invited_Teachers xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <CultureName xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Distribution_Groups xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <Invited_Students xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017050FBCF721D74EA191A2597D5F1D5E" ma:contentTypeVersion="34" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0862e470fa0c0095e2669c6e4a75f78a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cfd14483-b7c0-45b9-993d-9132a74e282d" xmlns:ns4="ff8d2f56-c84d-4871-b762-e5ed0407f39a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b183421cabab6f235163586efe9e3efe" ns3:_="" ns4:_="">
     <xsd:import namespace="cfd14483-b7c0-45b9-993d-9132a74e282d"/>
@@ -2562,32 +2783,68 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CD87B84-825B-439A-B230-2787E5696C25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ff8d2f56-c84d-4871-b762-e5ed0407f39a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cfd14483-b7c0-45b9-993d-9132a74e282d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{547B504B-5F24-4A1D-A49E-39A88668BD81}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <FolderType xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Owner xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Teachers xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <AppVersion xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <LMS_Mappings xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Math_Settings xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <NotebookType xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Students xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Templates xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <TeamsChannelId xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Student_Groups xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Invited_Teachers xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <CultureName xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Distribution_Groups xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <Invited_Students xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="cfd14483-b7c0-45b9-993d-9132a74e282d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30E27BE0-1DF6-4FBB-BB95-A839F5DAD638}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2604,4 +2861,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{547B504B-5F24-4A1D-A49E-39A88668BD81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CD87B84-825B-439A-B230-2787E5696C25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ff8d2f56-c84d-4871-b762-e5ed0407f39a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cfd14483-b7c0-45b9-993d-9132a74e282d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>